--- a/medicine/Enfance/Antwone_Fisher_(film)/Antwone_Fisher_(film).xlsx
+++ b/medicine/Enfance/Antwone_Fisher_(film)/Antwone_Fisher_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antwone Fisher est un film américain réalisé par Denzel Washington, sorti en 2002.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeune marin noir de la Navy Antwone Fisher est en conflit contre le monde. Orphelin de naissance, de nature violente mais d'un fond sensible, il se voit obligé de se confier à un psy de l'armée. Ce dernier démontre que cette violence et auto-dévalorisation est due à un manque d'affection, son psy donc va lui confier une tâche très importante, celle de retrouver sa famille.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Antwone Fisher
 Réalisation : Denzel Washington
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Derek Luke (VF : Bruno Henry) : Antwone Quenton 'Fish' Fisher
 Malcolm David Kelley : Antwone Fisher à l'âge de 7 ans
@@ -633,7 +651,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le tournage a débuté en octobre 2001 et s'est déroulé à Cleveland, Coronado, Glenville, San Diego, San Francisco et sur l'USS Belleau Wood (LHA-3).
 L'acteur De'aundre Bonds s'était vu confier un rôle, mais le jour où il apprit la nouvelle, il organisa une petite fête pour célébrer l'événement, durant laquelle, à la suite d'une altercation, il tua le petit ami de sa tante et fut condamné à 11 ans de réclusion criminelle.</t>
@@ -664,7 +684,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Laguna Sunrise, interprété par Billy Martin
 Marine Corps Jody, chant traditionnel
